--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121219.xlsx_with_dialog_acts.xlsx
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5309,12 +5309,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5729,12 +5729,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5813,12 +5813,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5855,12 +5855,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6105,12 +6105,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6231,12 +6231,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6609,12 +6609,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6861,12 +6861,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7453,12 +7453,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7495,12 +7495,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8041,12 +8041,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8461,12 +8461,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8629,12 +8629,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8839,12 +8839,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10149,12 +10149,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10531,12 +10531,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10783,12 +10783,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10993,12 +10993,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11077,12 +11077,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11245,12 +11245,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11665,12 +11665,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12047,12 +12047,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12089,12 +12089,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12135,12 +12135,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12303,12 +12303,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12555,12 +12555,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12891,12 +12891,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13143,12 +13143,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13185,12 +13185,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13521,12 +13521,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13731,12 +13731,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14151,12 +14151,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15117,12 +15117,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15411,12 +15411,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15579,12 +15579,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16041,12 +16041,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16125,12 +16125,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16461,12 +16461,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16713,12 +16713,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16755,12 +16755,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16839,12 +16839,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17467,12 +17467,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18475,12 +18475,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
